--- a/repeticiones.xlsx
+++ b/repeticiones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sergi_Desktop\Desktop\5_rou_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E336DB1-F8F0-4B92-89CC-7BC6AD2EC8D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF640E80-DBA5-4A8D-B4FA-AC090F056F96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16010" yWindow="0" windowWidth="16710" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>1/2</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>1 mes</t>
+  </si>
+  <si>
+    <t>triggers</t>
   </si>
 </sst>
 </file>
@@ -395,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M28"/>
+  <dimension ref="A1:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K21:K28"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -406,7 +409,7 @@
     <col min="1" max="1" width="16.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>14</v>
       </c>
@@ -416,8 +419,11 @@
       <c r="L1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -451,8 +457,11 @@
       <c r="M3">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="O3">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -487,7 +496,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -522,7 +531,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -557,7 +566,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
@@ -592,7 +601,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -627,7 +636,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>9</v>
       </c>
@@ -662,7 +671,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>6</v>
       </c>
@@ -697,7 +706,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -732,7 +741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>7</v>
       </c>
@@ -767,7 +776,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -802,7 +811,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -837,7 +846,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -872,7 +881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -928,7 +937,7 @@
         <v>36</v>
       </c>
       <c r="J21">
-        <f>I21*D21</f>
+        <f t="shared" ref="J21:J28" si="0">I21*D21</f>
         <v>7.2</v>
       </c>
       <c r="K21">
@@ -947,7 +956,7 @@
         <v>0.4</v>
       </c>
       <c r="E22">
-        <f t="shared" ref="E22:E28" si="0">C22*D22</f>
+        <f t="shared" ref="E22:E28" si="1">C22*D22</f>
         <v>7.2</v>
       </c>
       <c r="F22">
@@ -958,7 +967,7 @@
         <v>36</v>
       </c>
       <c r="J22">
-        <f>I22*D22</f>
+        <f t="shared" si="0"/>
         <v>14.4</v>
       </c>
       <c r="K22">
@@ -977,7 +986,7 @@
         <v>0.8</v>
       </c>
       <c r="E23">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>14.4</v>
       </c>
       <c r="F23">
@@ -988,11 +997,11 @@
         <v>36</v>
       </c>
       <c r="J23">
-        <f>I23*D23</f>
+        <f t="shared" si="0"/>
         <v>28.8</v>
       </c>
       <c r="K23">
-        <f t="shared" ref="K23:K28" si="1">J23-F23</f>
+        <f t="shared" ref="K23:K28" si="2">J23-F23</f>
         <v>3.5999999999999979</v>
       </c>
     </row>
@@ -1007,22 +1016,22 @@
         <v>1.6</v>
       </c>
       <c r="E24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>28.8</v>
       </c>
       <c r="F24">
-        <f t="shared" ref="F24:F28" si="2">E24+F23</f>
+        <f t="shared" ref="F24:F28" si="3">E24+F23</f>
         <v>54</v>
       </c>
       <c r="I24">
         <v>36</v>
       </c>
       <c r="J24">
-        <f>I24*D24</f>
+        <f t="shared" si="0"/>
         <v>57.6</v>
       </c>
       <c r="K24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6000000000000014</v>
       </c>
     </row>
@@ -1037,22 +1046,22 @@
         <v>3.2</v>
       </c>
       <c r="E25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>57.6</v>
       </c>
       <c r="F25">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>111.6</v>
       </c>
       <c r="I25">
         <v>36</v>
       </c>
       <c r="J25">
-        <f>I25*D25</f>
+        <f t="shared" si="0"/>
         <v>115.2</v>
       </c>
       <c r="K25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6000000000000085</v>
       </c>
     </row>
@@ -1067,22 +1076,22 @@
         <v>6.4</v>
       </c>
       <c r="E26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>115.2</v>
       </c>
       <c r="F26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>226.8</v>
       </c>
       <c r="I26">
         <v>36</v>
       </c>
       <c r="J26">
-        <f>I26*D26</f>
+        <f t="shared" si="0"/>
         <v>230.4</v>
       </c>
       <c r="K26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999943</v>
       </c>
     </row>
@@ -1097,22 +1106,22 @@
         <v>12.8</v>
       </c>
       <c r="E27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>230.4</v>
       </c>
       <c r="F27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>457.20000000000005</v>
       </c>
       <c r="I27">
         <v>36</v>
       </c>
       <c r="J27">
-        <f>I27*D27</f>
+        <f t="shared" si="0"/>
         <v>460.8</v>
       </c>
       <c r="K27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5999999999999659</v>
       </c>
     </row>
@@ -1127,22 +1136,22 @@
         <v>25.6</v>
       </c>
       <c r="E28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>460.8</v>
       </c>
       <c r="F28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>918</v>
       </c>
       <c r="I28">
         <v>36</v>
       </c>
       <c r="J28">
-        <f>I28*D28</f>
+        <f t="shared" si="0"/>
         <v>921.6</v>
       </c>
       <c r="K28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.6000000000000227</v>
       </c>
     </row>
